--- a/Baitap1 - nhac si/musicians.xlsx
+++ b/Baitap1 - nhac si/musicians.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buiminhhuy/Documents/GitHub/scraping-Data/Baitap1 - nhac si/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F69DFE-E7B6-FC44-B013-179A16821310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120"/>
+    <workbookView xWindow="37120" yWindow="1060" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -249,9 +242,6 @@
     <t>Grace Slick</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Steppenwolf (band)</t>
   </si>
   <si>
@@ -274,380 +264,38 @@
   </si>
   <si>
     <t>2006–present</t>
+  </si>
+  <si>
+    <t>1964–1990 (music career)1995–present (painting career)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -670,251 +318,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -922,61 +328,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1261,25 +623,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="113.555555555556" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1375,7 +737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1383,7 +745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1391,7 +753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1399,7 +761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1415,7 +777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1439,7 +801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1455,7 +817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1463,7 +825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1471,7 +833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1479,7 +841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1487,7 +849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1495,7 +857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1503,7 +865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1511,7 +873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1519,7 +881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1527,7 +889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1535,7 +897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1543,7 +905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1551,7 +913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1559,7 +921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1567,48 +929,47 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>